--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634741.1225573773</v>
+        <v>632302.732598961</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>247.978396816033</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.31889899458554</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>83.09405498756115</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>254.5167172826895</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.2205257453331</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.0671622452951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>194.1708171770732</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>315.9968882787545</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>1.64230657388277</v>
       </c>
       <c r="W7" t="n">
-        <v>283.3684601569028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>223.097775381403</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.1612211844852</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>139.3948594558967</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833894</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>233.2715658672543</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.3725990111917</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>116.2771247230822</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819354</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>24.83266606353346</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>129.1078928223836</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456764</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>134.0367616438401</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.831980181939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.825382616189214</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.15578456998</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>103.1686991936211</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.155784569984</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.17501931583776</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717217</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2184.664762991461</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C2" t="n">
-        <v>1815.70224605105</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D2" t="n">
-        <v>1457.436547444299</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E2" t="n">
-        <v>1071.648294846055</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3314.172590301509</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3314.172590301509</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3314.172590301509</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>3314.172590301509</v>
+        <v>2988.141956006682</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.403935031395</v>
+        <v>2635.373300736568</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.403935031395</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y2" t="n">
-        <v>2571.264603055583</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4401,10 @@
         <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.6709106036544</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335303</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>843.9205694372858</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y4" t="n">
-        <v>625.6709106036544</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2765.652537847403</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2765.652537847403</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2392.186779586323</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>754.9746608886195</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W7" t="n">
-        <v>1164.612676616877</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X7" t="n">
-        <v>936.6231257188592</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y7" t="n">
-        <v>936.6231257188592</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
         <v>1320.35562273557</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X8" t="n">
-        <v>2656.568750250374</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
         <v>511.4317969248226</v>
@@ -4948,16 +4948,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1897.462430614634</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>742.422574620032</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>328.4394675364385</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608056</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608056</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072585</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>733.6583989593863</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>677.2291802831428</v>
+        <v>494.0589900220723</v>
       </c>
       <c r="C13" t="n">
-        <v>508.2929973552359</v>
+        <v>325.1228070941654</v>
       </c>
       <c r="D13" t="n">
-        <v>358.1763579429002</v>
+        <v>175.0061676818297</v>
       </c>
       <c r="E13" t="n">
-        <v>210.263264360507</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F13" t="n">
-        <v>210.263264360507</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q13" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T13" t="n">
-        <v>2140.837647083051</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U13" t="n">
-        <v>1851.761433397778</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V13" t="n">
-        <v>1597.076945191891</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W13" t="n">
-        <v>1307.65977515493</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1079.670224256913</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y13" t="n">
-        <v>858.8776451133825</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881686</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,7 +5513,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,16 +5756,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.345997432836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>923.4098145049288</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>773.2931750925931</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>625.3800815101999</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>478.4901340122896</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>311.2940347271695</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782968</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038354</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.46108051051</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304623</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304623</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.787041406605</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.994462263075</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6224,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6941,43 +6941,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400739</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121671</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782979</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038366</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797769</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138438</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703137</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7491,16 +7491,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>117.1600804794589</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>97.8688627935903</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>244.6582034825738</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>46.61145443660422</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.2915261372936</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.29152613728999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537748</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>49.26492815408471</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.4141550350944</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582875</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.26526345295147</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>6.257951202383794</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.60858003038</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295126</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>45.4467738245913</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844822831</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>72.11969353038613</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>948448.156566008</v>
+        <v>948448.1565660083</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.621250324</v>
+        <v>375475.6212503243</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
@@ -26320,37 +26320,37 @@
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190153</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
         <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
+        <v>403573.299845003</v>
+      </c>
+      <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="L2" t="n">
         <v>403573.299845003</v>
       </c>
-      <c r="K2" t="n">
-        <v>403573.2998450029</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>403573.2998450032</v>
+      </c>
+      <c r="N2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="M2" t="n">
-        <v>403573.2998450031</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="O2" t="n">
-        <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189856</v>
+        <v>313680.0588189851</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504152</v>
+        <v>11452.26311504171</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832924</v>
+        <v>81924.27863832908</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.01735570473</v>
+        <v>3077.017355704841</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49738.75772975895</v>
+        <v>49738.75772975915</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10550.55566555585</v>
@@ -26451,7 +26451,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1110941.822768421</v>
+        <v>-1111117.04908683</v>
       </c>
       <c r="C6" t="n">
-        <v>212842.8213126159</v>
+        <v>212842.821312616</v>
       </c>
       <c r="D6" t="n">
-        <v>212842.8213126159</v>
+        <v>212842.8213126156</v>
       </c>
       <c r="E6" t="n">
-        <v>-23032.85717936442</v>
+        <v>-23078.76217492959</v>
       </c>
       <c r="F6" t="n">
-        <v>280441.4186192731</v>
+        <v>280406.6806938373</v>
       </c>
       <c r="G6" t="n">
-        <v>291893.681734315</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="H6" t="n">
-        <v>291893.6817343146</v>
+        <v>291858.943808879</v>
       </c>
       <c r="I6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="J6" t="n">
-        <v>74362.47933703715</v>
+        <v>74327.7414116014</v>
       </c>
       <c r="K6" t="n">
-        <v>291893.6817343146</v>
+        <v>291858.9438088791</v>
       </c>
       <c r="L6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="M6" t="n">
-        <v>209969.4030959855</v>
+        <v>209934.6651705501</v>
       </c>
       <c r="N6" t="n">
-        <v>288816.6643786099</v>
+        <v>288781.9264531742</v>
       </c>
       <c r="O6" t="n">
-        <v>291893.6817343148</v>
+        <v>291858.9438088789</v>
       </c>
       <c r="P6" t="n">
-        <v>291893.6817343147</v>
+        <v>291858.9438088791</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>268.2643481230875</v>
+        <v>268.2643481230871</v>
       </c>
       <c r="F3" t="n">
         <v>9.934451625288375</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237134</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237134</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237134</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>158.8976489256784</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>115.2143833957796</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.517491106799696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>133.5814412930617</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>70.24105037729908</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>250.4953367499452</v>
       </c>
       <c r="W7" t="n">
-        <v>3.154538179688188</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>126.14319333601</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.0767174715684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>147.1281388806943</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29952,7 +29952,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492848</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H13" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q13" t="n">
         <v>205.0641983561742</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>653.3850396373766</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471796</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>614.7544723218302</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726647</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>510.7887951929322</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629545</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295559</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
